--- a/biology/Botanique/Herzog_Park/Herzog_Park.xlsx
+++ b/biology/Botanique/Herzog_Park/Herzog_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herzog Park est un parc situé à Rathgar, Dublin.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gouvernement de Dublin a acheté le parc en 1954, Mais le parc actuel a été créé en 1985 par le département des parcs. Il s'appelait Orwell Quarry Park[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gouvernement de Dublin a acheté le parc en 1954, Mais le parc actuel a été créé en 1985 par le département des parcs. Il s'appelait Orwell Quarry Park.
 Le parc a été renommé en 1995 pour Chaim Herzog, le président d'Israël qui vivait à Dublin quand il était jeune.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Installations sportives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rathgar Tennis Club est situé dans Herzog Park. Le club de tennis Rathgar est situé dans Herzog Park. Il y a 10 courts de tennis, un mur de tennis et un club-house[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rathgar Tennis Club est situé dans Herzog Park. Le club de tennis Rathgar est situé dans Herzog Park. Il y a 10 courts de tennis, un mur de tennis et un club-house.
 </t>
         </is>
       </c>
